--- a/lp_tenant_exporter_v2/split/tenants/esait_config.xlsx
+++ b/lp_tenant_exporter_v2/split/tenants/esait_config.xlsx
@@ -1093,6 +1093,9 @@
     <t>{"allowed_all": false, "permitted": [{"logpoint_name": "siem-backend", "logpoint_ip": "127.0.0.1", "device_groups": [{"all": true, "name": "windows", "devices": [{"ips": ["10.93.8.26"], "all": true, "name": "core-ojs"}, {"ips": ["10.93.8.27"], "all": true, "name": "core-tajs"}, {"ips": ["10.93.11.11"], "all": true, "name": "core-ijs"}, {"ips": ["10.93.9.31"], "all": true, "name": "sccoe-csoc-rfsa-rf-cas"}, {"ips": ["10.93.8.247"], "all": true, "name": "TEMP-QR-SCCOE-Victim"}, {"ips": ["10.44.36.9"], "all": true, "name": "TEMP-QR-MOI-Victim"}, {"ips": ["10.93.11.10"], "all": true, "name": "core-vs1-p001esadc"}, {"ips": ["10.44.35.10"], "all": true, "name": "core-vs2-p001esadc"}, {"ips": ["10.93.8.243"], "all": true, "name": "sccoe-ar-victim"}, {"ips": ["10.44.36.12"], "all": true, "name": "moi-ar-victim"}]}, {"all": true, "name": "linux", "devices": [{"ips": ["127.0.0.1", "::1"], "all": true, "name": "localhost"}, {"ips": ["10.93.8.246"], "all": true, "name": "sccoe-TenantLogGen"}, {"ips": ["10.93.9.32"], "all": true, "name": "core-tenable.sc"}, {"ips": ["10.93.9.245"], "all": true, "name": "core-edr-log"}, {"ips": ["10.44.36.5"], "all": true, "name": "moi-sanm"}, {"ips": ["10.32.3.10"], "all": true, "name": "esrin-linux01"}, {"ips": ["10.93.9.34"], "all": true, "name": "core-deception-acm"}, {"ips": ["10.44.36.11"], "all": true, "name": "moi-TenantLogGen"}, {"ips": ["10.28.9.131"], "all": true, "name": "esait-TenantLogGen"}, {"ips": ["10.48.3.10"], "all": true, "name": "esrin-dhcp01"}, {"ips": ["10.17.20.202"], "all": true, "name": "esrin-forum01"}, {"ips": ["10.182.17.56"], "all": true, "name": "esrin-linux02"}, {"ips": ["10.182.17.146"], "all": true, "name": "esrin-linux03"}, {"ips": ["10.17.8.20"], "all": true, "name": "esrin-linux04"}, {"ips": ["10.17.8.11"], "all": true, "name": "esrin-linux05"}, {"ips": ["10.32.63.49"], "all": true, "name": "esrin-linux06"}, {"ips": ["10.182.17.48"], "all": true, "name": "esrin-linux07"}, {"ips": ["10.182.17.54"], "all": true, "name": "esrin-linux08"}, {"ips": ["10.93.11.14"], "all": true, "name": "core-vs1-p001esarsam"}, {"ips": ["10.44.35.14"], "all": true, "name": "core-vs2-p001esarsam"}, {"ips": ["10.93.8.241"], "all": true, "name": "sccoe-TenantLogGen2"}, {"ips": ["10.28.9.132"], "all": true, "name": "esait-TenantLogGen2"}, {"ips": ["10.181.238.68"], "all": true, "name": "tia-TenantLogGen"}]}, {"all": true, "name": "firewall", "devices": [{"ips": ["10.93.10.254"], "all": true, "name": "core-csoc-prod-esec-pri-fw1"}, {"ips": ["172.18.11.218"], "all": true, "name": "esrin-palo-fw02"}, {"ips": ["172.18.11.216"], "all": true, "name": "esrin-palo-fw01"}, {"ips": ["10.21.95.33"], "all": true, "name": "esrin-cisco-firepower02"}, {"ips": ["10.181.95.33"], "all": true, "name": "esrin-cisco-firepower01"}, {"ips": ["172.18.11.217"], "all": true, "name": "esrin-palo-fw03"}, {"ips": ["172.18.11.219"], "all": true, "name": "esrin-palo-fw04"}, {"ips": ["10.21.67.1"], "all": true, "name": "esrin-checkpoint-fw01"}, {"ips": ["10.22.5.1"], "all": true, "name": "esrin-checkpoint-fw02"}]}, {"all": true, "name": "others", "devices": [{"ips": ["10.93.8.252"], "all": true, "name": "sccoe-sanm"}, {"ips": ["10.113.5.121"], "all": true, "name": "esrin-sharepoint"}, {"ips": ["10.32.12.29"], "all": true, "name": "esrin-cisco-asa01"}, {"ips": ["10.32.12.30"], "all": true, "name": "esrin-cisco-asa02"}, {"ips": ["10.17.12.186"], "all": true, "name": "esrin-pwexilbl01"}, {"ips": ["10.17.14.111"], "all": true, "name": "esrin-pwexilbl02"}, {"ips": ["10.17.14.163"], "all": true, "name": "esrin-pwexilbl03"}, {"ips": ["10.182.17.35"], "all": true, "name": "esrin-pdepilb01"}]}, {"all": true, "name": "wireless", "devices": [{"ips": ["10.101.9.194"], "all": true, "name": "esrin-cisco-wism03"}, {"ips": ["10.16.2.191"], "all": true, "name": "esrin-cisco-wism04"}, {"ips": ["10.16.2.194"], "all": true, "name": "esrin-cisco-wism05"}, {"ips": ["10.66.0.191"], "all": true, "name": "esrin-cisco-wism07"}, {"ips": ["10.66.0.194"], "all": true, "name": "esrin-cisco-wism08"}, {"ips": ["172.16.32.198"], "all": true, "name": "esrin-cisco-wism10"}, {"ips": ["172.16.32.199"], "all": true, "name": "esrin-cisco-wism11"}, {"ips": ["10.32.6.191"], "all": true, "name": "esrin-cisco-wism06"}, {"ips": ["10.82.7.191"], "all": true, "name": "esrin-cisco-wism09"}, {"ips": ["10.101.9.191"], "all": true, "name": "esrin-cisco-wism01"}, {"ips": ["10.101.9.192"], "all": true, "name": "esrin-cisco-wism02"}, {"ips": ["10.250.250.161"], "all": true, "name": "esrin-cisco-wism12"}, {"ips": ["10.250.250.191"], "all": true, "name": "esrin-cisco-wism13"}, {"ips": ["10.250.250.194"], "all": true, "name": "esrin-cisco-wism14"}, {"ips": ["10.32.6.194"], "all": true, "name": "esrin-cisco-wism15"}, {"ips": ["10.48.2.191"], "all": true, "name": "esrin-cisco-wism16"}, {"ips": ["10.48.2.194"], "all": true, "name": "esrin-cisco-wism17"}, {"ips": ["10.66.0.192"], "all": true, "name": "esrin-cisco-wism18"}, {"ips": ["10.82.7.192"], "all": true, "name": "esrin-cisco-wism19"}]}, {"all": true, "name": "identity", "devices": [{"ips": ["10.21.75.30"], "all": true, "name": "esrin-iam01"}, {"ips": ["10.21.75.21"], "all": true, "name": "esrin-iam02"}, {"ips": ["10.21.75.18"], "all": true, "name": "esrin-igidb01"}, {"ips": ["10.21.75.5"], "all": true, "name": "esrin-igidb-acc01"}, {"ips": ["10.21.75.17"], "all": true, "name": "esrin-igildap01"}, {"ips": ["10.21.75.6"], "all": true, "name": "esrin-igildap-acc01"}]}, {"all": true, "name": "LTM", "devices": [{"ips": ["10.113.5.60"], "all": true, "name": "esrin-f5-ltm01"}, {"ips": ["10.113.5.62"], "all": true, "name": "esrin-f5-ltm02"}]}, {"all": true, "name": "VPN", "devices": []}, {"all": true, "name": "PAM", "devices": [{"ips": ["10.28.2.10"], "all": true, "name": "esrin-beyondtrust-pam01"}, {"ips": ["10.28.2.11"], "all": true, "name": "esrin-beyondtrust-pam02"}, {"ips": ["10.28.2.12"], "all": true, "name": "esrin-beyondtrust-pam03"}, {"ips": ["10.28.2.9"], "all": true, "name": "esrin-beyondtrust-pam04"}]}, {"all": true, "name": "oracle", "devices": [{"ips": ["10.17.20.7"], "all": true, "name": "esrin-oracle-ssp01"}, {"ips": ["10.17.20.33"], "all": true, "name": "esrin-oracle-ssp02"}]}, {"all": true, "name": "log_proxy", "devices": [{"ips": ["10.21.58.7"], "all": true, "name": "esait-log-proxy1"}, {"ips": ["10.99.89.43"], "all": true, "name": "moi-log-proxy1"}, {"ips": ["10.99.40.26"], "all": true, "name": "moi-log-proxy2"}, {"ips": ["10.21.58.8"], "all": true, "name": "esait-log-proxy2"}, {"ips": ["10.21.58.11"], "all": true, "name": "esait-log-proxy3"}]}, {"all": true, "name": "RSA", "devices": [{"ips": ["10.93.11.14"], "all": true, "name": "core-vs1-p001esarsam"}, {"ips": ["10.44.35.14"], "all": true, "name": "core-vs2-p001esarsam"}]}, {"all": true, "name": "Ungrouped", "devices": []}], "repos": [{"name": "default"}, {"name": "_logpoint"}, {"name": "_LogPointAlerts"}, {"name": "Repo-core-system"}, {"name": "Repo-core-system-verbose"}, {"name": "Repo-core-secu"}, {"name": "Repo-core-secu-verbose"}, {"name": "Repo-core-system-expert"}, {"name": "Repo-core-cloud"}, {"name": "Repo-moi-system"}, {"name": "Repo-moi-system-verbose"}, {"name": "Repo-moi-secu"}, {"name": "Repo-moi-secu-verbose"}, {"name": "Repo-moi-system-expert"}, {"name": "Repo-moi-cloud"}, {"name": "Repo-esait-system"}, {"name": "Repo-esait-secu"}, {"name": "Repo-esait-secu-verbose"}, {"name": "Repo-sccoe-cloud"}, {"name": "Repo-sccoe-secu"}, {"name": "Repo-sccoe-secu-verbose"}, {"name": "Repo-sccoe-system"}, {"name": "Repo-sccoe-system-expert"}, {"name": "Repo-sccoe-system-verbose"}, {"name": "Repo-esait-system-verbose"}, {"name": "Repo-tia-system"}, {"name": "Repo-tia-system-verbose"}, {"name": "Repo-tia-secu"}, {"name": "Repo-tia-secu-verbose"}], "allDeviceGroups": true, "allRepos": true}]}</t>
   </si>
   <si>
+    <t>settings.repos</t>
+  </si>
+  <si>
     <t>settings.user</t>
   </si>
   <si>
@@ -1234,9 +1237,6 @@
     <t>settings.livesearch_data.limit</t>
   </si>
   <si>
-    <t>settings.repos</t>
-  </si>
-  <si>
     <t>settings.throttling_enabled</t>
   </si>
   <si>
@@ -1349,6 +1349,66 @@
   </si>
   <si>
     <t>LP_Image Mount Indicator in Recent Files</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-esait-secu"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-esait-secu-verbose"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-esait-system"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-esait-system-verbose"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose"]</t>
+  </si>
+  <si>
+    <t>["127.0.0.1:5504", "10.109.234.1:5504"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-core-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system", "10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-sccoe-cloud", "10.109.234.1:5504/Repo-sccoe-secu", "10.109.234.1:5504/Repo-sccoe-secu-verbose", "10.109.234.1:5504/Repo-sccoe-system", "10.109.234.1:5504/Repo-sccoe-system-expert", "127.0.0.1:5504/Repo-sccoe-system-verbose"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "127.0.0.1:5504/Repo-esait-system-verbose"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-tia-secu", "10.109.234.1:5504/Repo-tia-secu-verbose", "10.109.234.1:5504/Repo-tia-system", "10.109.234.1:5504/Repo-tia-system-verbose", "10.109.234.1:5504/Repo-core-cloud", "10.109.234.1:5504/Repo-core-secu", "10.109.234.1:5504/Repo-core-secu-verbose", "10.109.234.1:5504/Repo-core-system", "10.109.234.1:5504/Repo-core-system-expert", "10.109.234.1:5504/Repo-core-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "127.0.0.1:5504/Repo-esait-secu-verbose"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system", "10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-sccoe-cloud", "10.109.234.1:5504/Repo-sccoe-secu", "10.109.234.1:5504/Repo-sccoe-secu-verbose", "127.0.0.1:5504/Repo-sccoe-system"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system", "10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-sccoe-cloud", "127.0.0.1:5504/Repo-sccoe-secu"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-core-system-expert", "10.109.234.1:5504/Repo-core-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system", "10.109.234.1:5504/Repo-moi-system-expert", "127.0.0.1:5504/Repo-moi-system-verbose"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-core-secu-verbose", "10.109.234.1:5504/Repo-core-system", "10.109.234.1:5504/Repo-core-system-expert", "10.109.234.1:5504/Repo-core-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "127.0.0.1:5504/Repo-moi-system"]</t>
+  </si>
+  <si>
+    <t>["127.0.0.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-esait-secu"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "127.0.0.1:5504/Repo-esait-secu"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-core-system-verbose", "10.109.234.1:5504/Repo-esait-secu"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-moi-cloud"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "127.0.0.1:5504/Repo-esait-system-verbose"]</t>
   </si>
   <si>
     <t>etudes</t>
@@ -2013,66 +2073,6 @@
   </si>
   <si>
     <t>["sender", "message_subject"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-esait-secu"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-esait-secu-verbose"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-esait-system"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-esait-system-verbose"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose"]</t>
-  </si>
-  <si>
-    <t>["127.0.0.1:5504", "10.109.234.1:5504"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-core-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system", "10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-sccoe-cloud", "10.109.234.1:5504/Repo-sccoe-secu", "10.109.234.1:5504/Repo-sccoe-secu-verbose", "10.109.234.1:5504/Repo-sccoe-system", "10.109.234.1:5504/Repo-sccoe-system-expert", "127.0.0.1:5504/Repo-sccoe-system-verbose"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "127.0.0.1:5504/Repo-esait-system-verbose"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-tia-secu", "10.109.234.1:5504/Repo-tia-secu-verbose", "10.109.234.1:5504/Repo-tia-system", "10.109.234.1:5504/Repo-tia-system-verbose", "10.109.234.1:5504/Repo-core-cloud", "10.109.234.1:5504/Repo-core-secu", "10.109.234.1:5504/Repo-core-secu-verbose", "10.109.234.1:5504/Repo-core-system", "10.109.234.1:5504/Repo-core-system-expert", "10.109.234.1:5504/Repo-core-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "127.0.0.1:5504/Repo-esait-secu-verbose"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system", "10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-sccoe-cloud", "10.109.234.1:5504/Repo-sccoe-secu", "10.109.234.1:5504/Repo-sccoe-secu-verbose", "127.0.0.1:5504/Repo-sccoe-system"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system", "10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-sccoe-cloud", "127.0.0.1:5504/Repo-sccoe-secu"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-core-system-expert", "10.109.234.1:5504/Repo-core-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system", "10.109.234.1:5504/Repo-moi-system-expert", "127.0.0.1:5504/Repo-moi-system-verbose"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-core-secu-verbose", "10.109.234.1:5504/Repo-core-system", "10.109.234.1:5504/Repo-core-system-expert", "10.109.234.1:5504/Repo-core-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "127.0.0.1:5504/Repo-moi-system"]</t>
-  </si>
-  <si>
-    <t>["127.0.0.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-esait-secu"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "127.0.0.1:5504/Repo-esait-secu"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-core-system-verbose", "10.109.234.1:5504/Repo-esait-secu"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-moi-cloud"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "127.0.0.1:5504/Repo-esait-system-verbose"]</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;style type="text/css"&gt;
@@ -3614,118 +3614,118 @@
         <v>439</v>
       </c>
       <c r="C2" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="D2" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="E2" t="s">
-        <v>451</v>
-      </c>
-      <c r="F2">
+        <v>471</v>
+      </c>
+      <c r="F2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
       <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>300</v>
       </c>
-      <c r="P2" t="s">
-        <v>466</v>
-      </c>
       <c r="Q2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="R2" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="S2" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="T2" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="U2" t="s">
+        <v>521</v>
+      </c>
+      <c r="V2" t="s">
         <v>411</v>
       </c>
-      <c r="V2" t="s">
-        <v>451</v>
-      </c>
       <c r="W2" t="s">
-        <v>533</v>
+        <v>471</v>
       </c>
       <c r="X2" t="s">
-        <v>451</v>
+        <v>553</v>
       </c>
       <c r="Y2" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="Z2" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>466</v>
+        <v>471</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="b">
+        <v>0</v>
       </c>
       <c r="AE2" t="s">
-        <v>570</v>
+        <v>486</v>
       </c>
       <c r="AF2" t="s">
-        <v>577</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
+        <v>590</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>597</v>
       </c>
       <c r="AJ2">
         <v>0</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="s">
         <v>411</v>
       </c>
-      <c r="AL2" t="s">
-        <v>578</v>
-      </c>
-      <c r="AM2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>597</v>
+      <c r="AM2" t="s">
+        <v>598</v>
+      </c>
+      <c r="AN2" t="b">
+        <v>1</v>
       </c>
       <c r="AO2" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="AP2" t="s">
         <v>618</v>
       </c>
       <c r="AQ2" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="AR2" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="AS2" t="s">
-        <v>649</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
+        <v>664</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>669</v>
       </c>
       <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
         <v>5</v>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <v>100</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>659</v>
       </c>
       <c r="BG2" t="s">
         <v>692</v>
@@ -3739,121 +3739,121 @@
         <v>440</v>
       </c>
       <c r="C3" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="D3" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="E3" t="s">
-        <v>451</v>
-      </c>
-      <c r="F3">
+        <v>471</v>
+      </c>
+      <c r="F3" t="s">
+        <v>471</v>
+      </c>
+      <c r="G3">
         <v>9</v>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
       <c r="J3" t="b">
         <v>1</v>
       </c>
-      <c r="M3">
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>7200</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
-        <v>467</v>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="R3" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="S3" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="T3" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="U3" t="s">
+        <v>522</v>
+      </c>
+      <c r="V3" t="s">
         <v>412</v>
       </c>
-      <c r="V3" t="s">
-        <v>504</v>
-      </c>
       <c r="W3" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="X3" t="s">
-        <v>451</v>
+        <v>554</v>
       </c>
       <c r="Y3" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="Z3" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>467</v>
+        <v>471</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="b">
+        <v>1</v>
       </c>
       <c r="AE3" t="s">
-        <v>571</v>
+        <v>487</v>
       </c>
       <c r="AF3" t="s">
-        <v>577</v>
-      </c>
-      <c r="AI3">
+        <v>591</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>597</v>
+      </c>
+      <c r="AJ3">
         <v>2</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="s">
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="s">
         <v>412</v>
       </c>
-      <c r="AL3" t="s">
-        <v>579</v>
-      </c>
-      <c r="AM3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>597</v>
+      <c r="AM3" t="s">
+        <v>599</v>
+      </c>
+      <c r="AN3" t="b">
+        <v>1</v>
       </c>
       <c r="AO3" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="AP3" t="s">
         <v>619</v>
       </c>
       <c r="AQ3" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="AR3" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="AS3" t="s">
-        <v>650</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
+        <v>664</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>670</v>
       </c>
       <c r="AU3">
         <v>0</v>
       </c>
       <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
         <v>100</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>660</v>
       </c>
       <c r="AX3" t="b">
         <v>0</v>
@@ -3873,124 +3873,124 @@
         <v>413</v>
       </c>
       <c r="B4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C4" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="D4" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="E4" t="s">
-        <v>451</v>
-      </c>
-      <c r="F4">
+        <v>471</v>
+      </c>
+      <c r="F4" t="s">
+        <v>471</v>
+      </c>
+      <c r="G4">
         <v>11</v>
       </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
       <c r="J4" t="b">
         <v>1</v>
       </c>
-      <c r="M4">
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>7200</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>468</v>
+      <c r="O4">
+        <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="R4" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="S4" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="T4" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="U4" t="s">
+        <v>522</v>
+      </c>
+      <c r="V4" t="s">
         <v>413</v>
       </c>
-      <c r="V4" t="s">
-        <v>505</v>
-      </c>
       <c r="W4" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="X4" t="s">
-        <v>451</v>
+        <v>555</v>
       </c>
       <c r="Y4" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="Z4" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>468</v>
+        <v>471</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="b">
+        <v>1</v>
       </c>
       <c r="AE4" t="s">
-        <v>571</v>
+        <v>488</v>
       </c>
       <c r="AF4" t="s">
-        <v>577</v>
-      </c>
-      <c r="AI4">
+        <v>591</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>597</v>
+      </c>
+      <c r="AJ4">
         <v>2</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="s">
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="s">
         <v>413</v>
       </c>
-      <c r="AL4" t="s">
-        <v>580</v>
-      </c>
-      <c r="AM4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>597</v>
+      <c r="AM4" t="s">
+        <v>600</v>
+      </c>
+      <c r="AN4" t="b">
+        <v>1</v>
       </c>
       <c r="AO4" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="AP4" t="s">
         <v>620</v>
       </c>
       <c r="AQ4" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="AR4" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="AS4" t="s">
-        <v>650</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
+        <v>664</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>670</v>
       </c>
       <c r="AU4">
         <v>0</v>
       </c>
       <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
         <v>100</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>661</v>
       </c>
       <c r="AX4" t="b">
         <v>0</v>
@@ -4010,124 +4010,124 @@
         <v>414</v>
       </c>
       <c r="B5" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C5" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="D5" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="E5" t="s">
-        <v>451</v>
-      </c>
-      <c r="F5">
+        <v>471</v>
+      </c>
+      <c r="F5" t="s">
+        <v>471</v>
+      </c>
+      <c r="G5">
         <v>12</v>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
       <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>86400</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>469</v>
+      <c r="O5">
+        <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R5" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="S5" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="T5" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="U5" t="s">
+        <v>522</v>
+      </c>
+      <c r="V5" t="s">
         <v>414</v>
       </c>
-      <c r="V5" t="s">
-        <v>506</v>
-      </c>
       <c r="W5" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="X5" t="s">
-        <v>451</v>
+        <v>556</v>
       </c>
       <c r="Y5" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="Z5" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>469</v>
+        <v>471</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
       </c>
       <c r="AE5" t="s">
-        <v>571</v>
+        <v>489</v>
       </c>
       <c r="AF5" t="s">
-        <v>577</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
+        <v>591</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>597</v>
       </c>
       <c r="AJ5">
         <v>0</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="s">
         <v>414</v>
       </c>
-      <c r="AL5" t="s">
-        <v>581</v>
-      </c>
-      <c r="AM5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>597</v>
+      <c r="AM5" t="s">
+        <v>601</v>
+      </c>
+      <c r="AN5" t="b">
+        <v>1</v>
       </c>
       <c r="AO5" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="AP5" t="s">
         <v>621</v>
       </c>
       <c r="AQ5" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AR5" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="AS5" t="s">
-        <v>651</v>
-      </c>
-      <c r="AT5">
-        <v>1</v>
+        <v>664</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>671</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
         <v>100</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>662</v>
       </c>
       <c r="AX5" t="b">
         <v>0</v>
@@ -4141,124 +4141,124 @@
         <v>415</v>
       </c>
       <c r="B6" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C6" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="D6" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="E6" t="s">
-        <v>451</v>
-      </c>
-      <c r="F6">
+        <v>471</v>
+      </c>
+      <c r="F6" t="s">
+        <v>471</v>
+      </c>
+      <c r="G6">
         <v>13</v>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
       <c r="J6" t="b">
         <v>1</v>
       </c>
-      <c r="M6">
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>7200</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>470</v>
+      <c r="O6">
+        <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="R6" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="S6" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="T6" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="U6" t="s">
+        <v>522</v>
+      </c>
+      <c r="V6" t="s">
         <v>415</v>
       </c>
-      <c r="V6" t="s">
-        <v>507</v>
-      </c>
       <c r="W6" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="X6" t="s">
-        <v>451</v>
+        <v>557</v>
       </c>
       <c r="Y6" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="Z6" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>470</v>
+        <v>471</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="b">
+        <v>1</v>
       </c>
       <c r="AE6" t="s">
-        <v>571</v>
+        <v>490</v>
       </c>
       <c r="AF6" t="s">
-        <v>577</v>
-      </c>
-      <c r="AI6">
+        <v>591</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>597</v>
+      </c>
+      <c r="AJ6">
         <v>2</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="s">
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="s">
         <v>415</v>
       </c>
-      <c r="AL6" t="s">
-        <v>579</v>
-      </c>
-      <c r="AM6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>597</v>
+      <c r="AM6" t="s">
+        <v>599</v>
+      </c>
+      <c r="AN6" t="b">
+        <v>1</v>
       </c>
       <c r="AO6" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="AP6" t="s">
         <v>619</v>
       </c>
       <c r="AQ6" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="AR6" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="AS6" t="s">
-        <v>650</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
+        <v>664</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>670</v>
       </c>
       <c r="AU6">
         <v>0</v>
       </c>
       <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
         <v>100</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>662</v>
       </c>
       <c r="AX6" t="b">
         <v>0</v>
@@ -4278,124 +4278,124 @@
         <v>416</v>
       </c>
       <c r="B7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C7" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="D7" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="E7" t="s">
-        <v>451</v>
-      </c>
-      <c r="F7">
+        <v>471</v>
+      </c>
+      <c r="F7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G7">
         <v>15</v>
       </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
       <c r="J7" t="b">
         <v>1</v>
       </c>
-      <c r="M7">
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>7200</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>468</v>
+      <c r="O7">
+        <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="R7" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="S7" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="T7" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="U7" t="s">
+        <v>522</v>
+      </c>
+      <c r="V7" t="s">
         <v>416</v>
       </c>
-      <c r="V7" t="s">
-        <v>508</v>
-      </c>
       <c r="W7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="X7" t="s">
-        <v>451</v>
+        <v>558</v>
       </c>
       <c r="Y7" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="Z7" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>468</v>
+        <v>471</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="b">
+        <v>1</v>
       </c>
       <c r="AE7" t="s">
-        <v>571</v>
+        <v>488</v>
       </c>
       <c r="AF7" t="s">
-        <v>577</v>
-      </c>
-      <c r="AI7">
+        <v>591</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>597</v>
+      </c>
+      <c r="AJ7">
         <v>2</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="s">
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="s">
         <v>416</v>
       </c>
-      <c r="AL7" t="s">
-        <v>580</v>
-      </c>
-      <c r="AM7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>597</v>
+      <c r="AM7" t="s">
+        <v>600</v>
+      </c>
+      <c r="AN7" t="b">
+        <v>1</v>
       </c>
       <c r="AO7" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="AP7" t="s">
         <v>620</v>
       </c>
       <c r="AQ7" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="AR7" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="AS7" t="s">
-        <v>650</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
+        <v>664</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>670</v>
       </c>
       <c r="AU7">
         <v>0</v>
       </c>
       <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
         <v>100</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>663</v>
       </c>
       <c r="AX7" t="b">
         <v>0</v>
@@ -4415,124 +4415,124 @@
         <v>417</v>
       </c>
       <c r="B8" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C8" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="D8" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="E8" t="s">
-        <v>451</v>
-      </c>
-      <c r="F8">
+        <v>471</v>
+      </c>
+      <c r="F8" t="s">
+        <v>471</v>
+      </c>
+      <c r="G8">
         <v>22</v>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
       <c r="J8" t="b">
         <v>1</v>
       </c>
-      <c r="M8">
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>3600</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="s">
-        <v>471</v>
+      <c r="O8">
+        <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="R8" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="S8" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="T8" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="U8" t="s">
+        <v>522</v>
+      </c>
+      <c r="V8" t="s">
         <v>417</v>
       </c>
-      <c r="V8" t="s">
-        <v>509</v>
-      </c>
       <c r="W8" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="X8" t="s">
-        <v>451</v>
+        <v>559</v>
       </c>
       <c r="Y8" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="Z8" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>471</v>
+        <v>471</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="b">
+        <v>1</v>
       </c>
       <c r="AE8" t="s">
-        <v>572</v>
+        <v>491</v>
       </c>
       <c r="AF8" t="s">
-        <v>577</v>
-      </c>
-      <c r="AI8">
-        <v>1</v>
+        <v>592</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>597</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="s">
         <v>417</v>
       </c>
-      <c r="AL8" t="s">
-        <v>582</v>
-      </c>
-      <c r="AM8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>597</v>
+      <c r="AM8" t="s">
+        <v>602</v>
+      </c>
+      <c r="AN8" t="b">
+        <v>1</v>
       </c>
       <c r="AO8" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="AP8" t="s">
         <v>622</v>
       </c>
       <c r="AQ8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AR8" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="AS8" t="s">
-        <v>582</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
+        <v>664</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>602</v>
       </c>
       <c r="AU8">
         <v>0</v>
       </c>
       <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
         <v>100</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>664</v>
       </c>
       <c r="AX8" t="b">
         <v>0</v>
@@ -4549,118 +4549,118 @@
         <v>418</v>
       </c>
       <c r="B9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C9" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="D9" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="E9" t="s">
-        <v>451</v>
-      </c>
-      <c r="F9">
+        <v>471</v>
+      </c>
+      <c r="F9" t="s">
+        <v>471</v>
+      </c>
+      <c r="G9">
         <v>27</v>
       </c>
-      <c r="H9" t="s">
-        <v>453</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
+      <c r="I9" t="s">
+        <v>473</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
       </c>
-      <c r="K9" t="s">
-        <v>456</v>
-      </c>
-      <c r="M9">
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>476</v>
+      </c>
+      <c r="N9">
         <v>300</v>
       </c>
-      <c r="P9" t="s">
-        <v>472</v>
-      </c>
       <c r="Q9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="R9" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="S9" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="T9" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="U9" t="s">
+        <v>523</v>
+      </c>
+      <c r="V9" t="s">
         <v>418</v>
       </c>
-      <c r="V9" t="s">
-        <v>510</v>
-      </c>
       <c r="W9" t="s">
-        <v>540</v>
-      </c>
-      <c r="AA9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>472</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>577</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>456</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
+        <v>530</v>
+      </c>
+      <c r="X9" t="s">
+        <v>560</v>
+      </c>
+      <c r="AB9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>492</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>597</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>476</v>
       </c>
       <c r="AJ9">
         <v>0</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="s">
         <v>418</v>
       </c>
-      <c r="AL9" t="s">
-        <v>583</v>
-      </c>
-      <c r="AM9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN9" t="s">
+      <c r="AM9" t="s">
+        <v>603</v>
+      </c>
+      <c r="AN9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO9" t="s">
         <v>145</v>
       </c>
-      <c r="AO9" t="s">
-        <v>472</v>
-      </c>
       <c r="AP9" t="s">
-        <v>623</v>
+        <v>492</v>
       </c>
       <c r="AQ9" t="s">
-        <v>451</v>
+        <v>643</v>
       </c>
       <c r="AR9" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="AS9" t="s">
-        <v>451</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
+        <v>471</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>471</v>
       </c>
       <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
         <v>5</v>
       </c>
-      <c r="AV9">
+      <c r="AW9">
         <v>25</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>665</v>
       </c>
       <c r="AX9" t="b">
         <v>0</v>
@@ -4677,121 +4677,121 @@
         <v>419</v>
       </c>
       <c r="B10" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C10" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="D10" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="E10" t="s">
-        <v>451</v>
-      </c>
-      <c r="F10">
+        <v>471</v>
+      </c>
+      <c r="F10" t="s">
+        <v>471</v>
+      </c>
+      <c r="G10">
         <v>29</v>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
       <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>43200</v>
       </c>
-      <c r="P10" t="s">
-        <v>473</v>
-      </c>
       <c r="Q10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="R10" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="S10" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="T10" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="U10" t="s">
+        <v>523</v>
+      </c>
+      <c r="V10" t="s">
         <v>419</v>
       </c>
-      <c r="V10" t="s">
-        <v>511</v>
-      </c>
       <c r="W10" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="X10" t="s">
-        <v>451</v>
+        <v>561</v>
       </c>
       <c r="Y10" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="Z10" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>473</v>
+        <v>471</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
       </c>
       <c r="AE10" t="s">
-        <v>571</v>
+        <v>493</v>
       </c>
       <c r="AF10" t="s">
-        <v>577</v>
-      </c>
-      <c r="AI10">
+        <v>591</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>597</v>
+      </c>
+      <c r="AJ10">
         <v>12</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="s">
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="s">
         <v>419</v>
       </c>
-      <c r="AL10" t="s">
-        <v>584</v>
-      </c>
-      <c r="AM10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN10" t="s">
+      <c r="AM10" t="s">
+        <v>604</v>
+      </c>
+      <c r="AN10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO10" t="s">
         <v>145</v>
       </c>
-      <c r="AO10" t="s">
-        <v>473</v>
-      </c>
       <c r="AP10" t="s">
-        <v>624</v>
+        <v>493</v>
       </c>
       <c r="AQ10" t="s">
-        <v>451</v>
+        <v>644</v>
       </c>
       <c r="AR10" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="AS10" t="s">
-        <v>451</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
+        <v>471</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>471</v>
       </c>
       <c r="AU10">
         <v>0</v>
       </c>
       <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
         <v>50</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>666</v>
       </c>
       <c r="AX10" t="b">
         <v>0</v>
@@ -4808,130 +4808,130 @@
         <v>420</v>
       </c>
       <c r="B11" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C11" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="D11" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="E11" t="s">
-        <v>451</v>
-      </c>
-      <c r="F11">
+        <v>471</v>
+      </c>
+      <c r="F11" t="s">
+        <v>471</v>
+      </c>
+      <c r="G11">
         <v>31</v>
       </c>
-      <c r="H11" t="s">
-        <v>454</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
+      <c r="I11" t="s">
+        <v>474</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
       </c>
-      <c r="K11" t="s">
-        <v>457</v>
-      </c>
-      <c r="M11">
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>477</v>
+      </c>
+      <c r="N11">
         <v>300</v>
       </c>
-      <c r="P11" t="s">
-        <v>474</v>
-      </c>
       <c r="Q11" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="R11" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="S11" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="T11" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="U11" t="s">
+        <v>522</v>
+      </c>
+      <c r="V11" t="s">
         <v>420</v>
       </c>
-      <c r="V11" t="s">
-        <v>512</v>
-      </c>
       <c r="W11" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="X11" t="s">
-        <v>451</v>
+        <v>562</v>
       </c>
       <c r="Y11" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="Z11" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>474</v>
+        <v>471</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="b">
+        <v>1</v>
       </c>
       <c r="AE11" t="s">
-        <v>571</v>
+        <v>494</v>
       </c>
       <c r="AF11" t="s">
-        <v>577</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>457</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
+        <v>591</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>597</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>477</v>
       </c>
       <c r="AJ11">
         <v>0</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="s">
         <v>420</v>
       </c>
-      <c r="AL11" t="s">
-        <v>585</v>
-      </c>
-      <c r="AM11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>597</v>
+      <c r="AM11" t="s">
+        <v>605</v>
+      </c>
+      <c r="AN11" t="b">
+        <v>1</v>
       </c>
       <c r="AO11" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="AP11" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AQ11" t="s">
         <v>645</v>
       </c>
       <c r="AR11" t="s">
-        <v>644</v>
+        <v>665</v>
       </c>
       <c r="AS11" t="s">
-        <v>652</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
+        <v>664</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>672</v>
       </c>
       <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
         <v>5</v>
       </c>
-      <c r="AV11">
+      <c r="AW11">
         <v>100</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>667</v>
       </c>
       <c r="AX11" t="b">
         <v>0</v>
@@ -4951,124 +4951,124 @@
         <v>412</v>
       </c>
       <c r="B12" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C12" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="D12" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="E12" t="s">
-        <v>451</v>
-      </c>
-      <c r="F12">
+        <v>472</v>
+      </c>
+      <c r="F12" t="s">
+        <v>471</v>
+      </c>
+      <c r="G12">
         <v>32</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
-      <c r="M12">
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12">
         <v>7200</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
-        <v>475</v>
+      <c r="O12">
+        <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="R12" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="S12" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="T12" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="U12" t="s">
+        <v>522</v>
+      </c>
+      <c r="V12" t="s">
         <v>412</v>
       </c>
-      <c r="V12" t="s">
-        <v>513</v>
-      </c>
       <c r="W12" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="X12" t="s">
-        <v>451</v>
+        <v>563</v>
       </c>
       <c r="Y12" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="Z12" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>475</v>
+        <v>471</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
       </c>
       <c r="AE12" t="s">
-        <v>571</v>
+        <v>495</v>
       </c>
       <c r="AF12" t="s">
-        <v>577</v>
-      </c>
-      <c r="AI12">
+        <v>591</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>597</v>
+      </c>
+      <c r="AJ12">
         <v>2</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="s">
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="s">
         <v>412</v>
       </c>
-      <c r="AL12" t="s">
-        <v>580</v>
-      </c>
-      <c r="AM12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>597</v>
+      <c r="AM12" t="s">
+        <v>600</v>
+      </c>
+      <c r="AN12" t="b">
+        <v>1</v>
       </c>
       <c r="AO12" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="AP12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AQ12" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AR12" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="AS12" t="s">
-        <v>653</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
+        <v>664</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>673</v>
       </c>
       <c r="AU12">
         <v>0</v>
       </c>
       <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
         <v>100</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>668</v>
       </c>
       <c r="AX12" t="b">
         <v>0</v>
@@ -5088,124 +5088,124 @@
         <v>421</v>
       </c>
       <c r="B13" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C13" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="D13" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="E13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F13">
+        <v>472</v>
+      </c>
+      <c r="F13" t="s">
+        <v>471</v>
+      </c>
+      <c r="G13">
         <v>33</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
-      <c r="M13">
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13">
         <v>7200</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
-        <v>476</v>
+      <c r="O13">
+        <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="R13" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="S13" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="T13" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="U13" t="s">
+        <v>522</v>
+      </c>
+      <c r="V13" t="s">
         <v>421</v>
       </c>
-      <c r="V13" t="s">
-        <v>514</v>
-      </c>
       <c r="W13" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="X13" t="s">
-        <v>451</v>
+        <v>564</v>
       </c>
       <c r="Y13" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="Z13" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>476</v>
+        <v>471</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
       </c>
       <c r="AE13" t="s">
-        <v>571</v>
+        <v>496</v>
       </c>
       <c r="AF13" t="s">
-        <v>577</v>
-      </c>
-      <c r="AI13">
+        <v>591</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>597</v>
+      </c>
+      <c r="AJ13">
         <v>2</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="s">
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="s">
         <v>421</v>
       </c>
-      <c r="AL13" t="s">
-        <v>580</v>
-      </c>
-      <c r="AM13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>597</v>
+      <c r="AM13" t="s">
+        <v>600</v>
+      </c>
+      <c r="AN13" t="b">
+        <v>1</v>
       </c>
       <c r="AO13" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="AP13" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AQ13" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="AR13" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="AS13" t="s">
-        <v>653</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
+        <v>664</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>673</v>
       </c>
       <c r="AU13">
         <v>0</v>
       </c>
       <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
         <v>100</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>669</v>
       </c>
       <c r="AX13" t="b">
         <v>0</v>
@@ -5225,124 +5225,124 @@
         <v>414</v>
       </c>
       <c r="B14" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C14" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="D14" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="E14" t="s">
-        <v>451</v>
-      </c>
-      <c r="F14">
+        <v>472</v>
+      </c>
+      <c r="F14" t="s">
+        <v>471</v>
+      </c>
+      <c r="G14">
         <v>35</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
-      <c r="M14">
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14">
         <v>86400</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="s">
-        <v>469</v>
+      <c r="O14">
+        <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R14" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="S14" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="T14" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="U14" t="s">
+        <v>522</v>
+      </c>
+      <c r="V14" t="s">
         <v>414</v>
       </c>
-      <c r="V14" t="s">
-        <v>515</v>
-      </c>
       <c r="W14" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="X14" t="s">
-        <v>451</v>
+        <v>565</v>
       </c>
       <c r="Y14" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="Z14" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>469</v>
+        <v>471</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
       </c>
       <c r="AE14" t="s">
-        <v>571</v>
+        <v>489</v>
       </c>
       <c r="AF14" t="s">
-        <v>577</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
+        <v>591</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>597</v>
       </c>
       <c r="AJ14">
         <v>0</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="s">
         <v>414</v>
       </c>
-      <c r="AL14" t="s">
-        <v>581</v>
-      </c>
-      <c r="AM14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>597</v>
+      <c r="AM14" t="s">
+        <v>601</v>
+      </c>
+      <c r="AN14" t="b">
+        <v>1</v>
       </c>
       <c r="AO14" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="AP14" t="s">
         <v>621</v>
       </c>
       <c r="AQ14" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AR14" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="AS14" t="s">
-        <v>651</v>
-      </c>
-      <c r="AT14">
-        <v>1</v>
+        <v>664</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>671</v>
       </c>
       <c r="AU14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
         <v>100</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>670</v>
       </c>
       <c r="AX14" t="b">
         <v>0</v>
@@ -5359,124 +5359,124 @@
         <v>422</v>
       </c>
       <c r="B15" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="C15" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="D15" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="E15" t="s">
-        <v>451</v>
-      </c>
-      <c r="F15">
+        <v>472</v>
+      </c>
+      <c r="F15" t="s">
+        <v>471</v>
+      </c>
+      <c r="G15">
         <v>39</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
-      <c r="M15">
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <v>86400</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>469</v>
+      <c r="O15">
+        <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R15" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="S15" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="T15" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="U15" t="s">
+        <v>522</v>
+      </c>
+      <c r="V15" t="s">
         <v>422</v>
       </c>
-      <c r="V15" t="s">
-        <v>516</v>
-      </c>
       <c r="W15" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="X15" t="s">
-        <v>451</v>
+        <v>566</v>
       </c>
       <c r="Y15" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="Z15" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>469</v>
+        <v>471</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
       </c>
       <c r="AE15" t="s">
-        <v>571</v>
+        <v>489</v>
       </c>
       <c r="AF15" t="s">
-        <v>577</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
+        <v>591</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>597</v>
       </c>
       <c r="AJ15">
         <v>0</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="s">
         <v>422</v>
       </c>
-      <c r="AL15" t="s">
-        <v>581</v>
-      </c>
-      <c r="AM15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>597</v>
+      <c r="AM15" t="s">
+        <v>601</v>
+      </c>
+      <c r="AN15" t="b">
+        <v>1</v>
       </c>
       <c r="AO15" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="AP15" t="s">
         <v>621</v>
       </c>
       <c r="AQ15" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AR15" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="AS15" t="s">
-        <v>651</v>
-      </c>
-      <c r="AT15">
-        <v>1</v>
+        <v>664</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>671</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
         <v>100</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>671</v>
       </c>
       <c r="AX15" t="b">
         <v>0</v>
@@ -5493,130 +5493,130 @@
         <v>423</v>
       </c>
       <c r="B16" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C16" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="D16" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="E16" t="s">
-        <v>451</v>
-      </c>
-      <c r="F16">
+        <v>471</v>
+      </c>
+      <c r="F16" t="s">
+        <v>471</v>
+      </c>
+      <c r="G16">
         <v>42</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
-        <v>458</v>
-      </c>
-      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>478</v>
+      </c>
+      <c r="N16">
         <v>86400</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
-        <v>477</v>
+      <c r="O16">
+        <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="R16" t="s">
+        <v>515</v>
+      </c>
+      <c r="S16" t="s">
+        <v>517</v>
+      </c>
+      <c r="T16" t="s">
+        <v>518</v>
+      </c>
+      <c r="U16" t="s">
+        <v>522</v>
+      </c>
+      <c r="V16" t="s">
+        <v>423</v>
+      </c>
+      <c r="W16" t="s">
+        <v>537</v>
+      </c>
+      <c r="X16" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>471</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="s">
         <v>497</v>
       </c>
-      <c r="S16" t="s">
-        <v>498</v>
-      </c>
-      <c r="T16" t="s">
-        <v>502</v>
-      </c>
-      <c r="U16" t="s">
+      <c r="AF16" t="s">
+        <v>591</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>597</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>478</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="s">
         <v>423</v>
       </c>
-      <c r="V16" t="s">
-        <v>517</v>
-      </c>
-      <c r="W16" t="s">
-        <v>547</v>
-      </c>
-      <c r="X16" t="s">
-        <v>451</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>451</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>477</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>571</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>577</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>458</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>423</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>586</v>
-      </c>
-      <c r="AM16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>597</v>
+      <c r="AM16" t="s">
+        <v>606</v>
+      </c>
+      <c r="AN16" t="b">
+        <v>1</v>
       </c>
       <c r="AO16" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="AP16" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AQ16" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="AR16" t="s">
-        <v>644</v>
+        <v>666</v>
       </c>
       <c r="AS16" t="s">
-        <v>654</v>
-      </c>
-      <c r="AT16">
-        <v>1</v>
+        <v>664</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>674</v>
       </c>
       <c r="AU16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
         <v>100</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>668</v>
       </c>
       <c r="AX16" t="b">
         <v>0</v>
@@ -5633,124 +5633,124 @@
         <v>424</v>
       </c>
       <c r="B17" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="C17" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="D17" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="E17" t="s">
-        <v>451</v>
-      </c>
-      <c r="F17">
+        <v>472</v>
+      </c>
+      <c r="F17" t="s">
+        <v>471</v>
+      </c>
+      <c r="G17">
         <v>43</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
-      <c r="M17">
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17">
         <v>3600</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="s">
-        <v>478</v>
+      <c r="O17">
+        <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="R17" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="S17" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="T17" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="U17" t="s">
+        <v>522</v>
+      </c>
+      <c r="V17" t="s">
         <v>424</v>
       </c>
-      <c r="V17" t="s">
-        <v>518</v>
-      </c>
       <c r="W17" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="X17" t="s">
-        <v>451</v>
+        <v>568</v>
       </c>
       <c r="Y17" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="Z17" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>478</v>
+        <v>471</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
       </c>
       <c r="AE17" t="s">
-        <v>571</v>
+        <v>498</v>
       </c>
       <c r="AF17" t="s">
-        <v>577</v>
-      </c>
-      <c r="AI17">
-        <v>1</v>
+        <v>591</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>597</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="s">
         <v>424</v>
       </c>
-      <c r="AL17" t="s">
-        <v>582</v>
-      </c>
-      <c r="AM17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>597</v>
+      <c r="AM17" t="s">
+        <v>602</v>
+      </c>
+      <c r="AN17" t="b">
+        <v>1</v>
       </c>
       <c r="AO17" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="AP17" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AQ17" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="AR17" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="AS17" t="s">
-        <v>582</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
+        <v>664</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>602</v>
       </c>
       <c r="AU17">
         <v>0</v>
       </c>
       <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
         <v>100</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>672</v>
       </c>
       <c r="AX17" t="b">
         <v>0</v>
@@ -5767,130 +5767,130 @@
         <v>425</v>
       </c>
       <c r="B18" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="C18" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="D18" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="E18" t="s">
-        <v>451</v>
-      </c>
-      <c r="F18">
+        <v>472</v>
+      </c>
+      <c r="F18" t="s">
+        <v>471</v>
+      </c>
+      <c r="G18">
         <v>47</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
       <c r="J18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>459</v>
-      </c>
-      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>479</v>
+      </c>
+      <c r="N18">
         <v>86400</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>499</v>
+      </c>
+      <c r="R18" t="s">
+        <v>515</v>
+      </c>
+      <c r="S18" t="s">
+        <v>517</v>
+      </c>
+      <c r="T18" t="s">
+        <v>518</v>
+      </c>
+      <c r="U18" t="s">
+        <v>522</v>
+      </c>
+      <c r="V18" t="s">
+        <v>425</v>
+      </c>
+      <c r="W18" t="s">
+        <v>539</v>
+      </c>
+      <c r="X18" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>471</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>499</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>591</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>597</v>
+      </c>
+      <c r="AI18" t="s">
         <v>479</v>
       </c>
-      <c r="Q18" t="s">
-        <v>495</v>
-      </c>
-      <c r="R18" t="s">
-        <v>497</v>
-      </c>
-      <c r="S18" t="s">
-        <v>498</v>
-      </c>
-      <c r="T18" t="s">
-        <v>502</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="s">
         <v>425</v>
       </c>
-      <c r="V18" t="s">
-        <v>519</v>
-      </c>
-      <c r="W18" t="s">
-        <v>549</v>
-      </c>
-      <c r="X18" t="s">
-        <v>451</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>451</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>479</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>571</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>577</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>459</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>425</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>587</v>
-      </c>
-      <c r="AM18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>597</v>
+      <c r="AM18" t="s">
+        <v>607</v>
+      </c>
+      <c r="AN18" t="b">
+        <v>1</v>
       </c>
       <c r="AO18" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="AP18" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AQ18" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="AR18" t="s">
-        <v>644</v>
+        <v>666</v>
       </c>
       <c r="AS18" t="s">
-        <v>654</v>
-      </c>
-      <c r="AT18">
-        <v>1</v>
+        <v>664</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>674</v>
       </c>
       <c r="AU18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
         <v>100</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>673</v>
       </c>
       <c r="AX18" t="b">
         <v>0</v>
@@ -5907,127 +5907,127 @@
         <v>426</v>
       </c>
       <c r="B19" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C19" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="D19" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="E19" t="s">
-        <v>451</v>
-      </c>
-      <c r="F19">
+        <v>471</v>
+      </c>
+      <c r="F19" t="s">
+        <v>471</v>
+      </c>
+      <c r="G19">
         <v>52</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" t="s">
-        <v>460</v>
-      </c>
-      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>480</v>
+      </c>
+      <c r="N19">
         <v>600</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
+        <v>500</v>
+      </c>
+      <c r="R19" t="s">
+        <v>516</v>
+      </c>
+      <c r="S19" t="s">
+        <v>517</v>
+      </c>
+      <c r="T19" t="s">
+        <v>518</v>
+      </c>
+      <c r="U19" t="s">
+        <v>522</v>
+      </c>
+      <c r="V19" t="s">
+        <v>426</v>
+      </c>
+      <c r="W19" t="s">
+        <v>540</v>
+      </c>
+      <c r="X19" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>471</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>500</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>591</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>597</v>
+      </c>
+      <c r="AI19" t="s">
         <v>480</v>
       </c>
-      <c r="Q19" t="s">
-        <v>496</v>
-      </c>
-      <c r="R19" t="s">
-        <v>497</v>
-      </c>
-      <c r="S19" t="s">
-        <v>498</v>
-      </c>
-      <c r="T19" t="s">
-        <v>502</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="s">
         <v>426</v>
       </c>
-      <c r="V19" t="s">
-        <v>520</v>
-      </c>
-      <c r="W19" t="s">
-        <v>550</v>
-      </c>
-      <c r="X19" t="s">
-        <v>451</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>451</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>480</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>571</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>577</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>460</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>426</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>588</v>
-      </c>
-      <c r="AM19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>597</v>
+      <c r="AM19" t="s">
+        <v>608</v>
+      </c>
+      <c r="AN19" t="b">
+        <v>1</v>
       </c>
       <c r="AO19" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="AP19" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AQ19" t="s">
-        <v>451</v>
+        <v>651</v>
       </c>
       <c r="AR19" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="AS19" t="s">
-        <v>451</v>
-      </c>
-      <c r="AT19">
-        <v>0</v>
+        <v>471</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>471</v>
       </c>
       <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
         <v>10</v>
       </c>
-      <c r="AV19">
+      <c r="AW19">
         <v>100</v>
-      </c>
-      <c r="AW19" t="s">
-        <v>660</v>
       </c>
       <c r="AX19" t="b">
         <v>0</v>
@@ -6047,121 +6047,121 @@
         <v>427</v>
       </c>
       <c r="B20" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="C20" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="D20" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="E20" t="s">
-        <v>451</v>
-      </c>
-      <c r="F20">
+        <v>471</v>
+      </c>
+      <c r="F20" t="s">
+        <v>471</v>
+      </c>
+      <c r="G20">
         <v>62</v>
       </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
       <c r="J20" t="b">
         <v>1</v>
       </c>
-      <c r="M20">
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20">
         <v>3600</v>
       </c>
-      <c r="P20" t="s">
-        <v>481</v>
-      </c>
       <c r="Q20" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="R20" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="S20" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="T20" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="U20" t="s">
+        <v>522</v>
+      </c>
+      <c r="V20" t="s">
         <v>427</v>
       </c>
-      <c r="V20" t="s">
-        <v>521</v>
-      </c>
       <c r="W20" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="X20" t="s">
-        <v>451</v>
+        <v>571</v>
       </c>
       <c r="Y20" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="Z20" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>481</v>
+        <v>471</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="b">
+        <v>1</v>
       </c>
       <c r="AE20" t="s">
-        <v>571</v>
+        <v>501</v>
       </c>
       <c r="AF20" t="s">
-        <v>577</v>
-      </c>
-      <c r="AI20">
-        <v>1</v>
+        <v>591</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>597</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="s">
         <v>427</v>
       </c>
-      <c r="AL20" t="s">
-        <v>584</v>
-      </c>
-      <c r="AM20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN20" t="s">
+      <c r="AM20" t="s">
+        <v>604</v>
+      </c>
+      <c r="AN20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO20" t="s">
         <v>145</v>
       </c>
-      <c r="AO20" t="s">
-        <v>481</v>
-      </c>
       <c r="AP20" t="s">
-        <v>632</v>
+        <v>501</v>
       </c>
       <c r="AQ20" t="s">
-        <v>451</v>
+        <v>652</v>
       </c>
       <c r="AR20" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="AS20" t="s">
-        <v>451</v>
-      </c>
-      <c r="AT20">
-        <v>0</v>
+        <v>471</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>471</v>
       </c>
       <c r="AU20">
         <v>0</v>
       </c>
       <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
         <v>25</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>674</v>
       </c>
       <c r="AX20" t="b">
         <v>0</v>
@@ -6181,118 +6181,118 @@
         <v>440</v>
       </c>
       <c r="C21" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="D21" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="E21" t="s">
-        <v>451</v>
-      </c>
-      <c r="F21">
+        <v>471</v>
+      </c>
+      <c r="F21" t="s">
+        <v>471</v>
+      </c>
+      <c r="G21">
         <v>63</v>
       </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
       <c r="J21" t="b">
         <v>1</v>
       </c>
-      <c r="M21">
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21">
         <v>900</v>
       </c>
-      <c r="P21" t="s">
-        <v>482</v>
-      </c>
       <c r="Q21" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="R21" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="S21" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="T21" t="s">
+        <v>518</v>
+      </c>
+      <c r="U21" t="s">
+        <v>522</v>
+      </c>
+      <c r="V21" t="s">
+        <v>428</v>
+      </c>
+      <c r="W21" t="s">
+        <v>542</v>
+      </c>
+      <c r="X21" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>471</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="s">
         <v>502</v>
       </c>
-      <c r="U21" t="s">
+      <c r="AF21" t="s">
+        <v>591</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>597</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="s">
         <v>428</v>
       </c>
-      <c r="V21" t="s">
-        <v>522</v>
-      </c>
-      <c r="W21" t="s">
-        <v>552</v>
-      </c>
-      <c r="X21" t="s">
-        <v>451</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>451</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>482</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>571</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>577</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>428</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>589</v>
-      </c>
-      <c r="AM21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>597</v>
+      <c r="AM21" t="s">
+        <v>609</v>
+      </c>
+      <c r="AN21" t="b">
+        <v>1</v>
       </c>
       <c r="AO21" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="AP21" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AQ21" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="AR21" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="AS21" t="s">
-        <v>655</v>
-      </c>
-      <c r="AT21">
-        <v>0</v>
+        <v>664</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>675</v>
       </c>
       <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
         <v>15</v>
       </c>
-      <c r="AV21">
+      <c r="AW21">
         <v>100</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>660</v>
       </c>
       <c r="AX21" t="b">
         <v>0</v>
@@ -6309,121 +6309,121 @@
         <v>429</v>
       </c>
       <c r="B22" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C22" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="D22" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="E22" t="s">
-        <v>451</v>
-      </c>
-      <c r="F22">
+        <v>471</v>
+      </c>
+      <c r="F22" t="s">
+        <v>471</v>
+      </c>
+      <c r="G22">
         <v>65</v>
       </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
       <c r="J22" t="b">
         <v>1</v>
       </c>
-      <c r="M22">
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22">
         <v>3600</v>
       </c>
-      <c r="P22" t="s">
-        <v>483</v>
-      </c>
       <c r="Q22" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="R22" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="S22" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="T22" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="U22" t="s">
+        <v>522</v>
+      </c>
+      <c r="V22" t="s">
         <v>429</v>
       </c>
-      <c r="V22" t="s">
-        <v>523</v>
-      </c>
       <c r="W22" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="X22" t="s">
-        <v>451</v>
+        <v>573</v>
       </c>
       <c r="Y22" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="Z22" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>483</v>
+        <v>471</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="b">
+        <v>1</v>
       </c>
       <c r="AE22" t="s">
-        <v>573</v>
+        <v>503</v>
       </c>
       <c r="AF22" t="s">
-        <v>577</v>
-      </c>
-      <c r="AI22">
-        <v>1</v>
+        <v>593</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>597</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="s">
         <v>429</v>
       </c>
-      <c r="AL22" t="s">
-        <v>590</v>
-      </c>
-      <c r="AM22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>597</v>
+      <c r="AM22" t="s">
+        <v>610</v>
+      </c>
+      <c r="AN22" t="b">
+        <v>1</v>
       </c>
       <c r="AO22" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="AP22" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AQ22" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="AR22" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="AS22" t="s">
-        <v>656</v>
-      </c>
-      <c r="AT22">
-        <v>0</v>
+        <v>664</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>676</v>
       </c>
       <c r="AU22">
         <v>0</v>
       </c>
       <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
         <v>100</v>
-      </c>
-      <c r="AW22" t="s">
-        <v>661</v>
       </c>
       <c r="AX22" t="b">
         <v>0</v>
@@ -6443,121 +6443,121 @@
         <v>430</v>
       </c>
       <c r="B23" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C23" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="D23" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="E23" t="s">
-        <v>451</v>
-      </c>
-      <c r="F23">
+        <v>471</v>
+      </c>
+      <c r="F23" t="s">
+        <v>471</v>
+      </c>
+      <c r="G23">
         <v>67</v>
       </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
       <c r="J23" t="b">
         <v>1</v>
       </c>
-      <c r="M23">
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23">
         <v>3600</v>
       </c>
-      <c r="P23" t="s">
-        <v>484</v>
-      </c>
       <c r="Q23" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="R23" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="S23" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="T23" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="U23" t="s">
+        <v>522</v>
+      </c>
+      <c r="V23" t="s">
         <v>430</v>
       </c>
-      <c r="V23" t="s">
-        <v>524</v>
-      </c>
       <c r="W23" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="X23" t="s">
-        <v>451</v>
+        <v>574</v>
       </c>
       <c r="Y23" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="Z23" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>484</v>
+        <v>471</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="b">
+        <v>1</v>
       </c>
       <c r="AE23" t="s">
-        <v>574</v>
+        <v>504</v>
       </c>
       <c r="AF23" t="s">
-        <v>577</v>
-      </c>
-      <c r="AI23">
-        <v>1</v>
+        <v>594</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>597</v>
       </c>
       <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="s">
         <v>430</v>
       </c>
-      <c r="AL23" t="s">
-        <v>590</v>
-      </c>
-      <c r="AM23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>597</v>
+      <c r="AM23" t="s">
+        <v>610</v>
+      </c>
+      <c r="AN23" t="b">
+        <v>1</v>
       </c>
       <c r="AO23" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="AP23" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AQ23" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="AR23" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="AS23" t="s">
-        <v>656</v>
-      </c>
-      <c r="AT23">
-        <v>0</v>
+        <v>664</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>676</v>
       </c>
       <c r="AU23">
         <v>0</v>
       </c>
       <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
         <v>100</v>
-      </c>
-      <c r="AW23" t="s">
-        <v>662</v>
       </c>
       <c r="AX23" t="b">
         <v>0</v>
@@ -6577,121 +6577,121 @@
         <v>431</v>
       </c>
       <c r="B24" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C24" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="D24" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="E24" t="s">
-        <v>451</v>
-      </c>
-      <c r="F24">
+        <v>471</v>
+      </c>
+      <c r="F24" t="s">
+        <v>471</v>
+      </c>
+      <c r="G24">
         <v>69</v>
       </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
       <c r="J24" t="b">
         <v>1</v>
       </c>
-      <c r="M24">
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24">
         <v>3600</v>
       </c>
-      <c r="P24" t="s">
-        <v>485</v>
-      </c>
       <c r="Q24" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="R24" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="S24" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="T24" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="U24" t="s">
+        <v>522</v>
+      </c>
+      <c r="V24" t="s">
         <v>431</v>
       </c>
-      <c r="V24" t="s">
-        <v>525</v>
-      </c>
       <c r="W24" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="X24" t="s">
-        <v>451</v>
+        <v>575</v>
       </c>
       <c r="Y24" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="Z24" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>485</v>
+        <v>471</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="b">
+        <v>1</v>
       </c>
       <c r="AE24" t="s">
-        <v>573</v>
+        <v>505</v>
       </c>
       <c r="AF24" t="s">
-        <v>577</v>
-      </c>
-      <c r="AI24">
-        <v>1</v>
+        <v>593</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>597</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="s">
         <v>431</v>
       </c>
-      <c r="AL24" t="s">
-        <v>590</v>
-      </c>
-      <c r="AM24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>597</v>
+      <c r="AM24" t="s">
+        <v>610</v>
+      </c>
+      <c r="AN24" t="b">
+        <v>1</v>
       </c>
       <c r="AO24" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="AP24" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AQ24" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="AR24" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="AS24" t="s">
-        <v>656</v>
-      </c>
-      <c r="AT24">
-        <v>0</v>
+        <v>664</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>676</v>
       </c>
       <c r="AU24">
         <v>0</v>
       </c>
       <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
         <v>100</v>
-      </c>
-      <c r="AW24" t="s">
-        <v>663</v>
       </c>
       <c r="AX24" t="b">
         <v>0</v>
@@ -6711,121 +6711,121 @@
         <v>432</v>
       </c>
       <c r="B25" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="C25" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="D25" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="E25" t="s">
-        <v>451</v>
-      </c>
-      <c r="F25">
+        <v>471</v>
+      </c>
+      <c r="F25" t="s">
+        <v>471</v>
+      </c>
+      <c r="G25">
         <v>72</v>
       </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
       <c r="J25" t="b">
         <v>1</v>
       </c>
-      <c r="M25">
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25">
         <v>300</v>
       </c>
-      <c r="P25" t="s">
-        <v>486</v>
-      </c>
       <c r="Q25" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="R25" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="S25" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="T25" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="U25" t="s">
+        <v>522</v>
+      </c>
+      <c r="V25" t="s">
         <v>432</v>
       </c>
-      <c r="V25" t="s">
-        <v>526</v>
-      </c>
       <c r="W25" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="X25" t="s">
-        <v>451</v>
+        <v>576</v>
       </c>
       <c r="Y25" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="Z25" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>486</v>
+        <v>471</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="b">
+        <v>1</v>
       </c>
       <c r="AE25" t="s">
-        <v>571</v>
+        <v>506</v>
       </c>
       <c r="AF25" t="s">
-        <v>577</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
+        <v>591</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>597</v>
       </c>
       <c r="AJ25">
         <v>0</v>
       </c>
-      <c r="AK25" t="s">
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="s">
         <v>432</v>
       </c>
-      <c r="AL25" t="s">
-        <v>590</v>
-      </c>
-      <c r="AM25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>597</v>
+      <c r="AM25" t="s">
+        <v>610</v>
+      </c>
+      <c r="AN25" t="b">
+        <v>1</v>
       </c>
       <c r="AO25" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="AP25" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="AQ25" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="AR25" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="AS25" t="s">
-        <v>657</v>
-      </c>
-      <c r="AT25">
-        <v>0</v>
+        <v>664</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>677</v>
       </c>
       <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
         <v>5</v>
       </c>
-      <c r="AV25">
+      <c r="AW25">
         <v>100</v>
-      </c>
-      <c r="AW25" t="s">
-        <v>675</v>
       </c>
       <c r="AX25" t="b">
         <v>0</v>
@@ -6848,121 +6848,121 @@
         <v>433</v>
       </c>
       <c r="B26" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C26" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="D26" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="E26" t="s">
-        <v>451</v>
-      </c>
-      <c r="F26">
+        <v>471</v>
+      </c>
+      <c r="F26" t="s">
+        <v>471</v>
+      </c>
+      <c r="G26">
         <v>82</v>
       </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
       <c r="J26" t="b">
         <v>1</v>
       </c>
-      <c r="M26">
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26">
         <v>3600</v>
       </c>
-      <c r="P26" t="s">
-        <v>487</v>
-      </c>
       <c r="Q26" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="R26" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="S26" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="T26" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="U26" t="s">
+        <v>522</v>
+      </c>
+      <c r="V26" t="s">
         <v>433</v>
       </c>
-      <c r="V26" t="s">
-        <v>527</v>
-      </c>
       <c r="W26" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="X26" t="s">
-        <v>451</v>
+        <v>577</v>
       </c>
       <c r="Y26" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="Z26" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>487</v>
+        <v>471</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="b">
+        <v>1</v>
       </c>
       <c r="AE26" t="s">
-        <v>571</v>
+        <v>507</v>
       </c>
       <c r="AF26" t="s">
-        <v>577</v>
-      </c>
-      <c r="AI26">
-        <v>1</v>
+        <v>591</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>597</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="s">
         <v>433</v>
       </c>
-      <c r="AL26" t="s">
-        <v>591</v>
-      </c>
-      <c r="AM26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>597</v>
+      <c r="AM26" t="s">
+        <v>611</v>
+      </c>
+      <c r="AN26" t="b">
+        <v>1</v>
       </c>
       <c r="AO26" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="AP26" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="AQ26" t="s">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="AR26" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="AS26" t="s">
-        <v>658</v>
-      </c>
-      <c r="AT26">
-        <v>0</v>
+        <v>664</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>678</v>
       </c>
       <c r="AU26">
         <v>0</v>
       </c>
       <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
         <v>100</v>
-      </c>
-      <c r="AW26" t="s">
-        <v>661</v>
       </c>
       <c r="AX26" t="b">
         <v>0</v>
@@ -6982,127 +6982,127 @@
         <v>434</v>
       </c>
       <c r="B27" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="C27" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="D27" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="E27" t="s">
-        <v>451</v>
-      </c>
-      <c r="F27">
+        <v>471</v>
+      </c>
+      <c r="F27" t="s">
+        <v>471</v>
+      </c>
+      <c r="G27">
         <v>91</v>
       </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
       <c r="J27" t="b">
         <v>1</v>
       </c>
-      <c r="K27" t="s">
-        <v>461</v>
-      </c>
-      <c r="M27">
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>481</v>
+      </c>
+      <c r="N27">
         <v>3600</v>
       </c>
-      <c r="P27" t="s">
-        <v>488</v>
-      </c>
       <c r="Q27" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="R27" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="S27" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="T27" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="U27" t="s">
+        <v>522</v>
+      </c>
+      <c r="V27" t="s">
         <v>434</v>
       </c>
-      <c r="V27" t="s">
-        <v>528</v>
-      </c>
       <c r="W27" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="X27" t="s">
-        <v>451</v>
+        <v>578</v>
       </c>
       <c r="Y27" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="Z27" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>488</v>
+        <v>471</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="b">
+        <v>1</v>
       </c>
       <c r="AE27" t="s">
-        <v>574</v>
+        <v>508</v>
       </c>
       <c r="AF27" t="s">
-        <v>577</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>461</v>
-      </c>
-      <c r="AI27">
-        <v>1</v>
+        <v>594</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>597</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>481</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="s">
         <v>434</v>
       </c>
-      <c r="AL27" t="s">
-        <v>592</v>
-      </c>
-      <c r="AM27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>597</v>
+      <c r="AM27" t="s">
+        <v>612</v>
+      </c>
+      <c r="AN27" t="b">
+        <v>1</v>
       </c>
       <c r="AO27" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AP27" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AQ27" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="AR27" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
       <c r="AS27" t="s">
-        <v>654</v>
-      </c>
-      <c r="AT27">
-        <v>0</v>
+        <v>668</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>674</v>
       </c>
       <c r="AU27">
         <v>0</v>
       </c>
       <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
         <v>100</v>
-      </c>
-      <c r="AW27" t="s">
-        <v>676</v>
       </c>
       <c r="AX27" t="b">
         <v>0</v>
@@ -7119,127 +7119,127 @@
         <v>435</v>
       </c>
       <c r="B28" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C28" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="D28" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="E28" t="s">
-        <v>451</v>
-      </c>
-      <c r="F28">
+        <v>471</v>
+      </c>
+      <c r="F28" t="s">
+        <v>471</v>
+      </c>
+      <c r="G28">
         <v>92</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
       <c r="J28" t="b">
-        <v>1</v>
-      </c>
-      <c r="K28" t="s">
-        <v>462</v>
-      </c>
-      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>482</v>
+      </c>
+      <c r="N28">
         <v>300</v>
       </c>
-      <c r="P28" t="s">
-        <v>489</v>
-      </c>
       <c r="Q28" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="R28" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="S28" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="T28" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="U28" t="s">
+        <v>522</v>
+      </c>
+      <c r="V28" t="s">
         <v>435</v>
       </c>
-      <c r="V28" t="s">
-        <v>529</v>
-      </c>
       <c r="W28" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="X28" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="Y28" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="Z28" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>489</v>
+        <v>587</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD28" t="b">
+        <v>1</v>
       </c>
       <c r="AE28" t="s">
-        <v>575</v>
+        <v>509</v>
       </c>
       <c r="AF28" t="s">
-        <v>577</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>462</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
+        <v>595</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>597</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>482</v>
       </c>
       <c r="AJ28">
         <v>0</v>
       </c>
-      <c r="AK28" t="s">
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="s">
         <v>435</v>
       </c>
-      <c r="AL28" t="s">
-        <v>593</v>
-      </c>
-      <c r="AM28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN28" t="s">
+      <c r="AM28" t="s">
+        <v>613</v>
+      </c>
+      <c r="AN28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO28" t="s">
         <v>145</v>
       </c>
-      <c r="AO28" t="s">
-        <v>489</v>
-      </c>
       <c r="AP28" t="s">
-        <v>640</v>
+        <v>509</v>
       </c>
       <c r="AQ28" t="s">
-        <v>451</v>
+        <v>660</v>
       </c>
       <c r="AR28" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="AS28" t="s">
-        <v>451</v>
-      </c>
-      <c r="AT28">
-        <v>0</v>
+        <v>471</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>471</v>
       </c>
       <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
         <v>5</v>
       </c>
-      <c r="AV28">
+      <c r="AW28">
         <v>25</v>
-      </c>
-      <c r="AW28" t="s">
-        <v>662</v>
       </c>
       <c r="AX28" t="b">
         <v>0</v>
@@ -7262,127 +7262,127 @@
         <v>436</v>
       </c>
       <c r="B29" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C29" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="D29" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="E29" t="s">
-        <v>451</v>
-      </c>
-      <c r="F29">
+        <v>471</v>
+      </c>
+      <c r="F29" t="s">
+        <v>471</v>
+      </c>
+      <c r="G29">
         <v>93</v>
       </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
       <c r="J29" t="b">
         <v>1</v>
       </c>
-      <c r="K29" t="s">
-        <v>463</v>
-      </c>
-      <c r="M29">
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>483</v>
+      </c>
+      <c r="N29">
         <v>300</v>
       </c>
-      <c r="P29" t="s">
-        <v>490</v>
-      </c>
       <c r="Q29" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="R29" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="S29" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="T29" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="U29" t="s">
+        <v>522</v>
+      </c>
+      <c r="V29" t="s">
         <v>436</v>
       </c>
-      <c r="V29" t="s">
-        <v>530</v>
-      </c>
       <c r="W29" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="X29" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="Y29" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="Z29" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>490</v>
+        <v>587</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD29" t="b">
+        <v>1</v>
       </c>
       <c r="AE29" t="s">
-        <v>575</v>
+        <v>510</v>
       </c>
       <c r="AF29" t="s">
-        <v>577</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>463</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
+        <v>595</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>597</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>483</v>
       </c>
       <c r="AJ29">
         <v>0</v>
       </c>
-      <c r="AK29" t="s">
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="s">
         <v>436</v>
       </c>
-      <c r="AL29" t="s">
-        <v>594</v>
-      </c>
-      <c r="AM29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN29" t="s">
+      <c r="AM29" t="s">
+        <v>614</v>
+      </c>
+      <c r="AN29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO29" t="s">
         <v>145</v>
       </c>
-      <c r="AO29" t="s">
-        <v>490</v>
-      </c>
       <c r="AP29" t="s">
-        <v>641</v>
+        <v>510</v>
       </c>
       <c r="AQ29" t="s">
-        <v>451</v>
+        <v>661</v>
       </c>
       <c r="AR29" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="AS29" t="s">
-        <v>451</v>
-      </c>
-      <c r="AT29">
-        <v>0</v>
+        <v>471</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>471</v>
       </c>
       <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
         <v>5</v>
       </c>
-      <c r="AV29">
+      <c r="AW29">
         <v>25</v>
-      </c>
-      <c r="AW29" t="s">
-        <v>661</v>
       </c>
       <c r="AX29" t="b">
         <v>0</v>
@@ -7405,127 +7405,127 @@
         <v>437</v>
       </c>
       <c r="B30" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="C30" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="D30" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="E30" t="s">
-        <v>451</v>
-      </c>
-      <c r="F30">
+        <v>471</v>
+      </c>
+      <c r="F30" t="s">
+        <v>471</v>
+      </c>
+      <c r="G30">
         <v>95</v>
       </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
       <c r="J30" t="b">
         <v>1</v>
       </c>
-      <c r="K30" t="s">
-        <v>464</v>
-      </c>
-      <c r="M30">
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>484</v>
+      </c>
+      <c r="N30">
         <v>300</v>
       </c>
-      <c r="P30" t="s">
-        <v>491</v>
-      </c>
       <c r="Q30" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="R30" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="S30" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="T30" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="U30" t="s">
+        <v>522</v>
+      </c>
+      <c r="V30" t="s">
         <v>437</v>
       </c>
-      <c r="V30" t="s">
-        <v>531</v>
-      </c>
       <c r="W30" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="X30" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="Y30" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="Z30" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>491</v>
+        <v>588</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD30" t="b">
+        <v>1</v>
       </c>
       <c r="AE30" t="s">
-        <v>575</v>
+        <v>511</v>
       </c>
       <c r="AF30" t="s">
-        <v>577</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>464</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
+        <v>595</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>597</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>484</v>
       </c>
       <c r="AJ30">
         <v>0</v>
       </c>
-      <c r="AK30" t="s">
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="s">
         <v>437</v>
       </c>
-      <c r="AL30" t="s">
-        <v>595</v>
-      </c>
-      <c r="AM30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN30" t="s">
+      <c r="AM30" t="s">
+        <v>615</v>
+      </c>
+      <c r="AN30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO30" t="s">
         <v>145</v>
       </c>
-      <c r="AO30" t="s">
-        <v>491</v>
-      </c>
       <c r="AP30" t="s">
-        <v>642</v>
+        <v>511</v>
       </c>
       <c r="AQ30" t="s">
-        <v>451</v>
+        <v>662</v>
       </c>
       <c r="AR30" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="AS30" t="s">
-        <v>451</v>
-      </c>
-      <c r="AT30">
-        <v>0</v>
+        <v>471</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>471</v>
       </c>
       <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
         <v>5</v>
       </c>
-      <c r="AV30">
+      <c r="AW30">
         <v>25</v>
-      </c>
-      <c r="AW30" t="s">
-        <v>677</v>
       </c>
       <c r="AX30" t="b">
         <v>0</v>
@@ -7548,130 +7548,130 @@
         <v>438</v>
       </c>
       <c r="B31" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="C31" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="D31" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="E31" t="s">
-        <v>451</v>
-      </c>
-      <c r="F31">
+        <v>471</v>
+      </c>
+      <c r="F31" t="s">
+        <v>471</v>
+      </c>
+      <c r="G31">
         <v>102</v>
       </c>
-      <c r="H31" t="s">
-        <v>455</v>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="I31" t="s">
+        <v>475</v>
       </c>
       <c r="J31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" t="s">
-        <v>465</v>
-      </c>
-      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>485</v>
+      </c>
+      <c r="N31">
         <v>300</v>
       </c>
-      <c r="P31" t="s">
-        <v>492</v>
-      </c>
       <c r="Q31" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="R31" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="S31" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="T31" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="U31" t="s">
+        <v>523</v>
+      </c>
+      <c r="V31" t="s">
         <v>438</v>
       </c>
-      <c r="V31" t="s">
-        <v>532</v>
-      </c>
       <c r="W31" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="X31" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="Y31" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="Z31" t="s">
-        <v>569</v>
-      </c>
-      <c r="AA31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>492</v>
+        <v>588</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD31" t="b">
+        <v>1</v>
       </c>
       <c r="AE31" t="s">
-        <v>576</v>
+        <v>512</v>
       </c>
       <c r="AF31" t="s">
-        <v>577</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>465</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
+        <v>596</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>597</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>485</v>
       </c>
       <c r="AJ31">
         <v>0</v>
       </c>
-      <c r="AK31" t="s">
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="s">
         <v>438</v>
       </c>
-      <c r="AL31" t="s">
-        <v>596</v>
-      </c>
-      <c r="AM31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN31" t="s">
+      <c r="AM31" t="s">
+        <v>616</v>
+      </c>
+      <c r="AN31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO31" t="s">
         <v>145</v>
       </c>
-      <c r="AO31" t="s">
-        <v>617</v>
-      </c>
       <c r="AP31" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="AQ31" t="s">
-        <v>451</v>
+        <v>663</v>
       </c>
       <c r="AR31" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="AS31" t="s">
-        <v>451</v>
-      </c>
-      <c r="AT31">
-        <v>0</v>
+        <v>471</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>471</v>
       </c>
       <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
         <v>5</v>
       </c>
-      <c r="AV31">
+      <c r="AW31">
         <v>25</v>
-      </c>
-      <c r="AW31" t="s">
-        <v>678</v>
       </c>
       <c r="AX31" t="b">
         <v>0</v>
